--- a/codeBook.xlsx
+++ b/codeBook.xlsx
@@ -45,7 +45,7 @@
     <t>imdbRating</t>
   </si>
   <si>
-    <t>"The Gang Gets Racist"</t>
+    <t>EpiLength</t>
   </si>
 </sst>
 </file>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -432,7 +432,7 @@
     <col min="9" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,19 +457,43 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/codeBook.xlsx
+++ b/codeBook.xlsx
@@ -4,11 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="27920" yWindow="-10760" windowWidth="35960" windowHeight="18180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="generalInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="characterInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="activityInfo" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="characterInfo" localSheetId="1">characterInfo!$A$1:$AJ$114</definedName>
+    <definedName name="generalInfo" localSheetId="0">generalInfo!$A$1:$K$114</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -18,8 +24,73 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="characterInfo.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:ewellinger:Git:AlwaysSunnyDataset:characterInfo.csv" comma="1">
+      <textFields count="36">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="generalInfo.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:ewellinger:Git:AlwaysSunnyDataset:generalInfo.csv" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="377">
   <si>
     <t>AbsOrder</t>
   </si>
@@ -46,16 +117,1134 @@
   </si>
   <si>
     <t>EpiLength</t>
+  </si>
+  <si>
+    <t>EpiPlot</t>
+  </si>
+  <si>
+    <t>imdbVotes</t>
+  </si>
+  <si>
+    <t>The Gang Gets Racist</t>
+  </si>
+  <si>
+    <t>Charlie Day, Rob McElhenney</t>
+  </si>
+  <si>
+    <t>John Fortenberry</t>
+  </si>
+  <si>
+    <t>The guys hire Dee's friend as a promoter for the bar and get more than they bargained for. Charlie seeks black friends to prove he isn't a racist.</t>
+  </si>
+  <si>
+    <t>22 min</t>
+  </si>
+  <si>
+    <t>Charlie Wants an Abortion</t>
+  </si>
+  <si>
+    <t>In this take on the abortion debate Dennis and Mac go to opposite sides of an abortion rally to pick up women while Charlie deals with an unruly kid he believes to be his son.</t>
+  </si>
+  <si>
+    <t>Underage Drinking: A National Concern</t>
+  </si>
+  <si>
+    <t>Charlie Day (story), Rob McElhenney (story), Rob McElhenney</t>
+  </si>
+  <si>
+    <t>Daniel Attias</t>
+  </si>
+  <si>
+    <t>The gang turns Paddy's into a safe haven for teens, but things get weird when they all get asked to the local high school prom.</t>
+  </si>
+  <si>
+    <t>Charlie Has Cancer</t>
+  </si>
+  <si>
+    <t>Rob McElhenney</t>
+  </si>
+  <si>
+    <t>When Charlie confidentially confides that he has cancer, it leads to a series of instances of the guys manipulating women and one gorgeous transsexual (not a transvestite).</t>
+  </si>
+  <si>
+    <t>Gun Fever</t>
+  </si>
+  <si>
+    <t>Glenn Howerton (story), Rob McElhenney (story), Glenn Howerton</t>
+  </si>
+  <si>
+    <t>When Paddy's gets robbed, the gang decides to purchase a gun with many issues. At the same time Dee is dating a mysterious man which the gang suspects to be the robber.</t>
+  </si>
+  <si>
+    <t>21 min</t>
+  </si>
+  <si>
+    <t>The Gang Finds a Dead Guy</t>
+  </si>
+  <si>
+    <t>Charlie Day (story), Glenn Howerton (story), Rob McElhenney (story), Rob McElhenney</t>
+  </si>
+  <si>
+    <t>A guy dies in Paddy's pub. Dennis and Mac use the guy's death as an excuse to get close to the guy's attractive granddaughter. Meanwhile, Charlie discovers that Dennis and Dee's grandfather was a Nazi.</t>
+  </si>
+  <si>
+    <t>Charlie Got Molested</t>
+  </si>
+  <si>
+    <t>The gang learns that Charlie's former elementary school teacher is on trial for child molestation and they attempt to stage an intervention to get Charlie to admit that he was.</t>
+  </si>
+  <si>
+    <t>19 min</t>
+  </si>
+  <si>
+    <t>Charlie Gets Crippled</t>
+  </si>
+  <si>
+    <t>The gang discovers the perks of being handicapped when Charlie becomes wheel-chair bound after an accident. Dennis and Dee's estranged father returns.</t>
+  </si>
+  <si>
+    <t>23 min</t>
+  </si>
+  <si>
+    <t>The Gang Goes Jihad</t>
+  </si>
+  <si>
+    <t>When half of Paddy's gets bought out by a business developer, the gang seeks revenge. Unfortunately, an ill-timed dog-napping plot, a poorly made video tape, and a flaming bag of poop threaten the gang's chances of getting their property back.</t>
+  </si>
+  <si>
+    <t>Dennis and Dee Go on Welfare</t>
+  </si>
+  <si>
+    <t>Dennis and Dee quit their jobs and concoct a plan to get welfare benefits so they can pursue their unrealistic goals and dreams.</t>
+  </si>
+  <si>
+    <t>Mac Bangs Dennis' Mom</t>
+  </si>
+  <si>
+    <t>Charlie Day, Glenn Howerton</t>
+  </si>
+  <si>
+    <t>Tensions run high in the gang when Mac courts Dennis and Dee's mom and the two organize a stakeout to blackmail Frank and get out of "Charlie work".</t>
+  </si>
+  <si>
+    <t>24 min</t>
+  </si>
+  <si>
+    <t>Hundred Dollar Baby</t>
+  </si>
+  <si>
+    <t>Charlie Day, Glenn Howerton, Rob McElhenney</t>
+  </si>
+  <si>
+    <t>Inspired by the movie "Million Dollar Baby", Frank teaches Dee to inflict punishment while Dennis and Mac teach Charlie to take punishment. But both fighting careers are derailed by the use of "performance enhancing supplements".</t>
+  </si>
+  <si>
+    <t>The Gang Gives Back</t>
+  </si>
+  <si>
+    <t>Charlie Day</t>
+  </si>
+  <si>
+    <t>After being arrested for arson, Charlie is sentenced to community service and required to attend AA. Here he makes a discovery that could assist him in his ongoing effort to connect with the Waitress.</t>
+  </si>
+  <si>
+    <t>The Gang Exploits a Miracle</t>
+  </si>
+  <si>
+    <t>Charlie Day, Eric Falconer, Chris Romano</t>
+  </si>
+  <si>
+    <t>Frank tries to cavort the holy crowd when Mac discovers a water stain on Paddy's wall that closely resembles the Virgin Mary.</t>
+  </si>
+  <si>
+    <t>The Gang Runs for Office</t>
+  </si>
+  <si>
+    <t>David Hornsby</t>
+  </si>
+  <si>
+    <t>When the gang discovers that if you run for office that people will pay you to quit. So of course, the gang exploits this and so Dennis runs for office. While at the same time Frank and Charlie tries to stop this, which ends up in a feud.</t>
+  </si>
+  <si>
+    <t>Charlie Goes America All Over Everybody's Ass</t>
+  </si>
+  <si>
+    <t>To prove their patriotism, Charlie and Dee try to upstage the local anti-smoking group, while Dennis and Mac turn Paddy's into a bastion of true freedom. But when Frank takes things too far...</t>
+  </si>
+  <si>
+    <t>Dennis and Dee Get a New Dad</t>
+  </si>
+  <si>
+    <t>When Dennis and Dee discover their mother has lied to them about Frank being their dad, they get to know their real father. Meanwhile, Mac and Charlie attempt to impress Mac's imprisoned father by becoming hardened criminals.</t>
+  </si>
+  <si>
+    <t>The Gang Finds a Dumpster Baby</t>
+  </si>
+  <si>
+    <t>Jerry Levine</t>
+  </si>
+  <si>
+    <t>Mac and Dee decide to raise a baby they find in the dumpster. Dennis talks some trash while going green and befriending radical environmentalist groups, while Charlie and Frank go dumpster-diving.</t>
+  </si>
+  <si>
+    <t>The Gang Gets Invincible</t>
+  </si>
+  <si>
+    <t>Charlie Day, David Hornsby, Glenn Howerton</t>
+  </si>
+  <si>
+    <t>Fred Savage</t>
+  </si>
+  <si>
+    <t>Dennis, Mac, and Dee take part in the Philadelphia Eagles' open tryouts, while Frank drops acid and freaks out when he and Charlie tailgate next to the McPoyles.</t>
+  </si>
+  <si>
+    <t>Dennis and Dee's Mom Is Dead</t>
+  </si>
+  <si>
+    <t>David Hornsby, Rob McElhenney</t>
+  </si>
+  <si>
+    <t>Matt Shakman</t>
+  </si>
+  <si>
+    <t>After Dennis and Dee's gold-digging mother dies from a botched plastic-surgery operation, Dee and Frank scheme to get their name in the will, while Dennis inherits the house and makes plans for a party mansion.</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>The Gang Gets Held Hostage</t>
+  </si>
+  <si>
+    <t>Rob McElhenney (teleplay), Lisa Parsons (story)</t>
+  </si>
+  <si>
+    <t>Charlie, Mac, Dennis and Dee are held hostage in the bar by a revenge-seeking Liam McPoyle along with his dim-witted brother, Ryan, and his ugly, deaf and dumb cousin, Margaret, who subject...</t>
+  </si>
+  <si>
+    <t>The Aluminum Monster vs. Fatty Magoo</t>
+  </si>
+  <si>
+    <t>Dee discovers that her old high school friend "Fatty McGoo," the only girl in school who was a bigger loser than she was, is now a successful fashion designer. She and Dennis compete to ...</t>
+  </si>
+  <si>
+    <t>The Gang Solves the North Korea Situation</t>
+  </si>
+  <si>
+    <t>Charlie Day, Scott Marder, Rob Rosell</t>
+  </si>
+  <si>
+    <t>As they prepare for the annual Pub Crawl, the gang is horrified to learn that they face competition from a new Korean bar.</t>
+  </si>
+  <si>
+    <t>The Gang Sells Out</t>
+  </si>
+  <si>
+    <t>Charlie Day, David Hornsby</t>
+  </si>
+  <si>
+    <t>A corporate chain offers to buy the Paddy's Pub, leaving Dee and Charlie unemployed and forcing them to find jobs at another restaurant, where they abuse their positions and take advantage of the manager, who is Dee's friend.</t>
+  </si>
+  <si>
+    <t>Frank Sets Sweet Dee on Fire</t>
+  </si>
+  <si>
+    <t>Scott Marder (teleplay), Rob Rosell (teleplay), Rob McElhenney (story)</t>
+  </si>
+  <si>
+    <t>In their quest to become famous, Frank, Charlie, and Mac, search for newsworthy footage to air on public access.</t>
+  </si>
+  <si>
+    <t>Sweet Dee's Dating a Retarded Person</t>
+  </si>
+  <si>
+    <t>Scott Marder (teleplay), Rob Rosell (teleplay), Glenn Howerton (story)</t>
+  </si>
+  <si>
+    <t>While Dennis and Dee try to figure out if the rapper Dee is dating has a mental handicap or not, Charlie, Mac, and Frank try to start their own band without knowledge of how to play musical instruments.</t>
+  </si>
+  <si>
+    <t>Mac Is a Serial Killer</t>
+  </si>
+  <si>
+    <t>David Hornsby (teleplay), Charlie Day (story)</t>
+  </si>
+  <si>
+    <t>After reading that a serial killer is on the loose, the gang notices that Mac is acting shady and decides to find out if he's the man behind the murders.</t>
+  </si>
+  <si>
+    <t>Dennis Looks Like a Registered Sex Offender</t>
+  </si>
+  <si>
+    <t>Dennis is angry because he's being mistaken for a fat guy rather than the sex offender who moved next door to Charlie. Meanwhile, Mac's father is released from prison and he and Mac have some catching up to do.</t>
+  </si>
+  <si>
+    <t>The Gang Gets Whacked: Part 1</t>
+  </si>
+  <si>
+    <t>Glenn Howerton, Scott Marder, Rob Rosell</t>
+  </si>
+  <si>
+    <t>After stumbling upon a kilo of cocaine, the gang is forced to pay off a $25,000 debt to the mob. Mac becomes a mob informant, while Frank pimps out Dennis as an escort at the local country ...</t>
+  </si>
+  <si>
+    <t>The Gang Gets Whacked: Part 2</t>
+  </si>
+  <si>
+    <t>Scott Marder, Rob Rosell</t>
+  </si>
+  <si>
+    <t>While paying off their debt to the mob, Charlie and Dee try to find a way to make fake cocaine in order to fool them, while Dennis ranks in thousands of dollars being pimped out at the ...</t>
+  </si>
+  <si>
+    <t>Bums: Making a Mess All Over the City</t>
+  </si>
+  <si>
+    <t>Dee and Mac become Guardian Angels and clean up the streets when a bum starts using the alley behind the bar to masturbate. Meanwhile, Dennis, Charlie, and Frank impersonate police officers in order to get preferential treatment.</t>
+  </si>
+  <si>
+    <t>The Gang Dances Their Asses Off</t>
+  </si>
+  <si>
+    <t>David Hornsby, Scott Marder, Rob Rosell</t>
+  </si>
+  <si>
+    <t>After Charlie accidentally puts Paddy's Pub up for 1st prize in a local dance competition, Frank makes the gang participate in the contest. Here, they form alliances and try to cheat the ...</t>
+  </si>
+  <si>
+    <t>Mac and Dennis: Manhunters</t>
+  </si>
+  <si>
+    <t>Charlie Day, Jordan Young, Elijah Aron</t>
+  </si>
+  <si>
+    <t>Mac and Dennis pursue the ultimate high of hunting another man by stalking Rickety Cricket, while Dee and Charlie become obsessed with eating human flesh after they come to believe Frank has fed some of it to them.</t>
+  </si>
+  <si>
+    <t>The Gang Solves the Gas Crisis</t>
+  </si>
+  <si>
+    <t>Charlie Day, Sonny Lee, Patrick Walsh</t>
+  </si>
+  <si>
+    <t>While Mac, Dennis, and Charlie use their classic setup to sell gallons of gasoline door to door, Frank subjects Dee to a series of torture and mind games when he suspects that Dee is trying to kill him while the two plot to steal their inheritance from Bruce Mathis.</t>
+  </si>
+  <si>
+    <t>America's Next Top Paddy's Billboard Model Contest</t>
+  </si>
+  <si>
+    <t>Charlie Day, Rob McElhenney, Adam Stein</t>
+  </si>
+  <si>
+    <t>After buying a billboard, Frank subjects Dennis to a series of humiliating tests in a competition to get on the billboard, while Mac tries to find female subjects willing to go through his own version of a reality show, of sorts.</t>
+  </si>
+  <si>
+    <t>Mac's Banging the Waitress</t>
+  </si>
+  <si>
+    <t>Charlie manipulates Mac and Dennis when he accuses the two of them with sleeping with the coffee shop waitress.</t>
+  </si>
+  <si>
+    <t>Mac &amp; Charlie Die: Part 1</t>
+  </si>
+  <si>
+    <t>Fred Savage, Matt Shakman</t>
+  </si>
+  <si>
+    <t>After Mac's father is released from prison, Mac and Charlie stage their own deaths to save their lives.</t>
+  </si>
+  <si>
+    <t>Mac &amp; Charlie Die: Part 2</t>
+  </si>
+  <si>
+    <t>After Mac and Charlie fake their own deaths, the rest of the gang finds unique ways of dealing with the loss.</t>
+  </si>
+  <si>
+    <t>Who Pooped the Bed?</t>
+  </si>
+  <si>
+    <t>Rob McElhenney, Scott Marder, Rob Rosell</t>
+  </si>
+  <si>
+    <t>Frank and Charlie find someone has pooped in their bed, leading Mac and Dennis to join them as they attempt to find the culprit.</t>
+  </si>
+  <si>
+    <t>Paddy's Pub: The Worst Bar in Philadelphia</t>
+  </si>
+  <si>
+    <t>Scott Marder, Rob Rosell, David Hornsby</t>
+  </si>
+  <si>
+    <t>The gang kidnaps the writer of a review claiming that Paddy's is the worst bar in Philadelphia and tries to force him to change his mind. But things get worse when Charlie accidentally kidnaps the writer's neighbor.</t>
+  </si>
+  <si>
+    <t>Dennis Reynolds: An Erotic Life</t>
+  </si>
+  <si>
+    <t>While Frank and Mac come up with ways to spice up Dennis' erotic memoir, Dee finds that spending time in Charlie's shoes is way more difficult than it seems, and vice-versa.</t>
+  </si>
+  <si>
+    <t>Sweet Dee Has a Heart Attack</t>
+  </si>
+  <si>
+    <t>After Dee suffers a heart attack, she and Dennis try a healthier lifestyle. Charlie and Mac join the corporate work force to get health insurance.</t>
+  </si>
+  <si>
+    <t>The Gang Cracks the Liberty Bell</t>
+  </si>
+  <si>
+    <t>Rob McElhenney, Glenn Howerton, David Hornsby</t>
+  </si>
+  <si>
+    <t>In order to get Paddy's recognized by the city as a historical landmark, Mac, Dennis, and Charlie flash back to 1776 to tell the tale of the Paddy's crew's involvement in the cracking of the Liberty Bell.</t>
+  </si>
+  <si>
+    <t>The Gang Gets Extreme: Home Makeover Edition</t>
+  </si>
+  <si>
+    <t>While trying to make their own dreams come true, the gang decides to pay it forward to an unlucky family living in the city only to have their plans backfire on them.</t>
+  </si>
+  <si>
+    <t>The Nightman Cometh</t>
+  </si>
+  <si>
+    <t>Rob McElhenney, Glenn Howerton, Charlie Day</t>
+  </si>
+  <si>
+    <t>Charlie stages a rock opera based on his song "Nightman," and recruits the rest of the gang to help him with it.</t>
+  </si>
+  <si>
+    <t>The Gang Exploits the Mortgage Crisis</t>
+  </si>
+  <si>
+    <t>Becky Mann, Audra Sielaff</t>
+  </si>
+  <si>
+    <t>Randall Einhorn</t>
+  </si>
+  <si>
+    <t>While Frank buys a foreclosed house with intentions of selling it for profit, Mac and Dennis become hot-headed real estate brokers, and Dee takes advantage of a suburban couple looking to hire a surrogate mother.</t>
+  </si>
+  <si>
+    <t>The Gang Hits the Road</t>
+  </si>
+  <si>
+    <t>Glenn Howerton, Charlie Day</t>
+  </si>
+  <si>
+    <t>The gang takes Dee's new subcompact car and a U-haul on the road with the intentions of hitting the Grand Canyon, and Charlie attempts to expand his horizons.</t>
+  </si>
+  <si>
+    <t>The Great Recession</t>
+  </si>
+  <si>
+    <t>Mac and Dennis try to cut back Paddy's expenses by firing Dee and Charlie, and Frank figures out a clever way to keep the bar afloat.</t>
+  </si>
+  <si>
+    <t>The Gang Gives Frank an Intervention</t>
+  </si>
+  <si>
+    <t>After Frank embarrasses himself at the funeral of a deceased relative, Dennis and Dee decide that it's finally time to give him an intervention for his reckless lifestyle.</t>
+  </si>
+  <si>
+    <t>The Waitress Is Getting Married</t>
+  </si>
+  <si>
+    <t>Dee discovers that the waitress Charlie is obsessed with is getting married to her ex-boyfriend and plots to derail the wedding, while Mac, Frank and Dennis try to get Charlie back on the dating scene.</t>
+  </si>
+  <si>
+    <t>The World Series Defense</t>
+  </si>
+  <si>
+    <t>Fighting a series of traffic tickets, Dennis, along with the rest of the gang, tell the judge about their horrific experiences at Game 5 of the Phillies' world series.</t>
+  </si>
+  <si>
+    <t>The Gang Wrestles for the Troops</t>
+  </si>
+  <si>
+    <t>Randall Einhorn, Fred Savage</t>
+  </si>
+  <si>
+    <t>The gang decides to put on a wrestling show for troops returning home while Dee courts a soldier who doesn't seem like the person she's chatting online with.</t>
+  </si>
+  <si>
+    <t>Paddy's Pub: Home of the Original Kitten Mittens</t>
+  </si>
+  <si>
+    <t>Sonny Lee, Patrick Walsh</t>
+  </si>
+  <si>
+    <t>The gang attempts to create a merchandising angle for Paddy's when a convention comes to Philly.</t>
+  </si>
+  <si>
+    <t>Mac and Dennis Break Up</t>
+  </si>
+  <si>
+    <t>Taking Dee's advice seriously, Mac and Dennis decide that they're too co-dependent on each other and need to spend time apart. Meanwhile Charlie and Frank help Dee out with a major cat problem in her apartment.</t>
+  </si>
+  <si>
+    <t>The D.E.N.N.I.S. System</t>
+  </si>
+  <si>
+    <t>Dennis presents his fool-proof plan for picking up chicks, but soon finds that the gang each has their own fool-proof plans for one-upping each other.</t>
+  </si>
+  <si>
+    <t>Mac and Charlie Write a Movie</t>
+  </si>
+  <si>
+    <t>Glenn Howerton, Rob McElhenney</t>
+  </si>
+  <si>
+    <t>After Dee gets cast as an extra in the new M. Night Shyamalan movie, Mac and Charlie see a perfect opportunity to pitch their script, while Frank becomes a casting agent for Dennis.</t>
+  </si>
+  <si>
+    <t>The Gang Reignites the Rivalry</t>
+  </si>
+  <si>
+    <t>Dave Chernin, Charlie Day</t>
+  </si>
+  <si>
+    <t>Mac, Dennis, and Charlie seek revenge on another bar after their 10 year ban in a local flip cup tournament is lifted, but find they are in need of some serious practice. Dee discovers new skills and Frank wears tight pants.</t>
+  </si>
+  <si>
+    <t>Mac Fights Gay Marriage</t>
+  </si>
+  <si>
+    <t>Mac pulls out the big guns to protect the sanctity of marriage, while the rest of the gang reap the rewards of marital bliss.</t>
+  </si>
+  <si>
+    <t>Dennis Gets Divorced</t>
+  </si>
+  <si>
+    <t>Dave Chernin, John Chernin</t>
+  </si>
+  <si>
+    <t>Marital bliss turns to marital business, as the gang experiences the emotional and economic tribulations of divorce.</t>
+  </si>
+  <si>
+    <t>The Gang Buys a Boat</t>
+  </si>
+  <si>
+    <t>The gang attempts to open themselves up to the adventures of the sea after they purchase their 'new' boat.</t>
+  </si>
+  <si>
+    <t>Mac's Big Break</t>
+  </si>
+  <si>
+    <t>Rob Rosell</t>
+  </si>
+  <si>
+    <t>After Mac wins a radio contest to score a goal on the Flyers' ice, he and Charlie train for the event - badly, while Dennis and Dee start their own radio program.</t>
+  </si>
+  <si>
+    <t>Mac and Charlie: White Trash</t>
+  </si>
+  <si>
+    <t>Luvh Rakhe</t>
+  </si>
+  <si>
+    <t>Mac &amp; Charlie attempt to fix up their old pool after getting rejected by a country club, Dennis, Dee, and Frank attempt to gain entry to the club.</t>
+  </si>
+  <si>
+    <t>Mac's Mom Burns Her House Down</t>
+  </si>
+  <si>
+    <t>Charlie and Mac set-up a truly odd couple after Mac's Mom burns the house down, while Frank discovers the importance of paternal care when Dee falls ill.</t>
+  </si>
+  <si>
+    <t>Who Got Dee Pregnant?</t>
+  </si>
+  <si>
+    <t>The gang gets a real 'scare' after Dee reveals she's pregnant, forcing the guys to recall their last hazy Halloween Party to determine if one of them might be the father.</t>
+  </si>
+  <si>
+    <t>The Gang Gets a New Member</t>
+  </si>
+  <si>
+    <t>A blast from the past prompts the guys to expand membership, and Dee to re-consider her future.</t>
+  </si>
+  <si>
+    <t>Dee Reynolds: Shaping America's Youth</t>
+  </si>
+  <si>
+    <t>Motivated by the drama teacher who inspired her, Dee takes a job as a substitute teacher and exposes her students to the culture of Paddy's with a field trip to see the Gang's take on the Lethal Weapon series: Lethal Weapon 5.</t>
+  </si>
+  <si>
+    <t>Charlie Kelly: King of the Rats</t>
+  </si>
+  <si>
+    <t>When keeping the basement rodent-free drives Charlie to the brink, the gang decides to put the cynicism aside and throw a surprise party to cheer him up.</t>
+  </si>
+  <si>
+    <t>The Gang Gets Stranded in the Woods</t>
+  </si>
+  <si>
+    <t>Scott Marder (teleplay), Rob Rosell (teleplay), Luvh Rakhe (story)</t>
+  </si>
+  <si>
+    <t>Things go awry as the Gang travels to Atlantic City for a charity benefit. While Frank, Dee and Mac try to survive in the woods, Dennis and Charlie hitch a ride to the city and have the night of their lives.</t>
+  </si>
+  <si>
+    <t>Dee Gives Birth</t>
+  </si>
+  <si>
+    <t>David Hornsby, Becky Mann, Audra Sielaff</t>
+  </si>
+  <si>
+    <t>Before Dee's baby arrives, The Gang tries to figure out who is the father by throwing a house party for all her former flings.</t>
+  </si>
+  <si>
+    <t>A Very Sunny Christmas</t>
+  </si>
+  <si>
+    <t>David Hornsby, Becky Mann, Audra Sielaff, Charlie Day, Chadd Gindin (staff writer)</t>
+  </si>
+  <si>
+    <t>After years of being mistreated by Frank during the holiday season when he buys gifts for himself, Dennis and Dee decide to teach him a lesson by contacting his old business partner, Eugene...</t>
+  </si>
+  <si>
+    <t>43 min</t>
+  </si>
+  <si>
+    <t>Frank's Pretty Woman</t>
+  </si>
+  <si>
+    <t>When Frank decides to marry a prostitute, the gang tries to uncover her heart of gold.</t>
+  </si>
+  <si>
+    <t>The Gang Goes to the Jersey Shore</t>
+  </si>
+  <si>
+    <t>Dennis and Dee take the gang to their favorite childhood vacation spot, but things aren't quite how they remembered them.</t>
+  </si>
+  <si>
+    <t>Frank Reynolds' Little Beauties</t>
+  </si>
+  <si>
+    <t>The gang hosts a child beauty pageant at the bar.</t>
+  </si>
+  <si>
+    <t>Sweet Dee Gets Audited</t>
+  </si>
+  <si>
+    <t>Dee faces an IRS audit over her claim that the baby she carried as a surrogate is her dependent, while the guys decide to run the bar in an unemotional, democratic manner rather than their typical method of shouting and personal attacks.</t>
+  </si>
+  <si>
+    <t>Frank's Brother</t>
+  </si>
+  <si>
+    <t>When Frank's long lost brother Gino shows up at the bar, the two of them tell the gang about the jazz club they ran in the 1960s and 70s, and how they fell out over Shadynasty, a singer who was the love of both of their lives.</t>
+  </si>
+  <si>
+    <t>The Storm of the Century</t>
+  </si>
+  <si>
+    <t>Charlie Hornsby</t>
+  </si>
+  <si>
+    <t>As a hurricane threatens Philadelphia, Mac, Dennis and Charlie go to a mall to buy supplies and check out the large breasted TV reporter broadcasting from there, while Frank and Dee prepare Paddy's, and its basement bunker, for the storm.</t>
+  </si>
+  <si>
+    <t>Chardee MacDennis: The Game of Games</t>
+  </si>
+  <si>
+    <t>On a day of ultimate boredom and listlessness, the gang breaks out a homemade board game, created by Mac, Dee, Charlie, and Dennis.</t>
+  </si>
+  <si>
+    <t>The ANTI-Social Network</t>
+  </si>
+  <si>
+    <t>The gang's plan to use Facebook to promote Paddy's goes awry when they become obsessed with tracking down a man who shushed them while they were visiting a trendy new club.</t>
+  </si>
+  <si>
+    <t>The Gang Gets Trapped</t>
+  </si>
+  <si>
+    <t>Inspired by Indiana Jones, Dennis, Dee, and Frank sneak into a house supposed to contain a rare vase, but become trapped when the owners return home early.</t>
+  </si>
+  <si>
+    <t>How Mac Got Fat</t>
+  </si>
+  <si>
+    <t>Scott Marder, Mehar Sethi</t>
+  </si>
+  <si>
+    <t>Randall Einhorn, Matt Shakman</t>
+  </si>
+  <si>
+    <t>During confession, Mac tells a priest how Paddy's sudden spell of success resulted in him becoming fat, and why the rest of the gang is to blame.</t>
+  </si>
+  <si>
+    <t>Thunder Gun Express</t>
+  </si>
+  <si>
+    <t>A presidential visit to Philadelphia threatens to keep the gang from seeing a new action movie, leaving Dennis stuck in traffic, Frank stealing a boat, and Dee and Charlie prowling the city's sewers.</t>
+  </si>
+  <si>
+    <t>The High School Reunion</t>
+  </si>
+  <si>
+    <t>The gang attends their high school reunion, at which Dee manages to ingratiate herself with the popular crowd, Charlie and Mac get picked on, and Dennis is ignored by everyone.</t>
+  </si>
+  <si>
+    <t>The High School Reunion Part 2: The Gang's Revenge</t>
+  </si>
+  <si>
+    <t>Humiliated by the popular crowd at their high school reunion, the gang attempts to gain revenge, with predictably disastrous results.</t>
+  </si>
+  <si>
+    <t>Pop-Pop: The Final Solution</t>
+  </si>
+  <si>
+    <t>Dennis and Dee's Nazi grandfather is wasting away in a hospital, and it's their choice whether to pull the plug or not. Meanwhile, Charlie and Mac go crazy trying to find a dog painting they think has a lot of value.</t>
+  </si>
+  <si>
+    <t>The Gang Recycles Their Trash</t>
+  </si>
+  <si>
+    <t>While the city of Philadelphia's garbage men are on strike, Dennis, Mac, and Charlie decide to start a trash pick up business. And while being a big success, they must find out where to put this newly picked up trash.</t>
+  </si>
+  <si>
+    <t>The Maureen Ponderosa Wedding Massacre</t>
+  </si>
+  <si>
+    <t>Richie Keen</t>
+  </si>
+  <si>
+    <t>When the gang gets questioned on the massacre that happened at the McPoyle wedding, it seems they all have their own story. Which might not all be the same.</t>
+  </si>
+  <si>
+    <t>Charlie and Dee Find Love</t>
+  </si>
+  <si>
+    <t>After invading the world of the wealthy, Charlie and Dee find romance. Not to be left out, Dennis, Frank and Mac try to get in on the action.</t>
+  </si>
+  <si>
+    <t>The Gang Gets Analyzed</t>
+  </si>
+  <si>
+    <t>Todd Biermann</t>
+  </si>
+  <si>
+    <t>When Dee gets asked by her therapist to bring in her so called 'issues', Dee brings in the whole gang. And since they have all been called in, they have their own one on one therapy sessions, while many issues arise.</t>
+  </si>
+  <si>
+    <t>Charlie's Mom Has Cancer</t>
+  </si>
+  <si>
+    <t>Charlie's Mom tells him she has cancer. The gang tries to help her out, each in their own way. Meanwhile, Frank thinks his mind may be slipping.</t>
+  </si>
+  <si>
+    <t>Frank's Back in Business</t>
+  </si>
+  <si>
+    <t>Under threat of a hostile takeover, the board of Frank's old company calls him back to run the company. As before, Frank maximizes the company's product: money. Dennis, Mac and Dee find ...</t>
+  </si>
+  <si>
+    <t>Charlie Rules the World</t>
+  </si>
+  <si>
+    <t>The gang starts playing an online video game and Charlie becomes obsessed with becoming the best player in the game. Meanwhile, Dennis is upset everyone else is playing the game all the time and not out enjoying the real world.</t>
+  </si>
+  <si>
+    <t>The Gang Dines Out</t>
+  </si>
+  <si>
+    <t>Mehar Sethi</t>
+  </si>
+  <si>
+    <t>The gang turns up at the same restaurant for dinner at three different tables. They pretend not to notice they noticed they are noticing each other. Then the one-upmanship begins.</t>
+  </si>
+  <si>
+    <t>Reynolds vs. Reynolds: The Cereal Defense</t>
+  </si>
+  <si>
+    <t>When Frank accidentally hits Dennis's car while Dennis is eating cereal, Frank and Dennis go to the Paddy's Pub court to face off on who will pay for the damages.</t>
+  </si>
+  <si>
+    <t>The Gang Broke Dee</t>
+  </si>
+  <si>
+    <t>Dee embraces the desperate, self-loathing qualities the guys have beaten her into over the years, sending her stand-up comedy to unexpected places.</t>
+  </si>
+  <si>
+    <t>Gun Fever Too: Still Hot</t>
+  </si>
+  <si>
+    <t>After Frank appears on TV advocating gun ownership, the rest of the gang takes a look at the ownership process and alternatives to find common ground.</t>
+  </si>
+  <si>
+    <t>The Gang Tries Desperately to Win an Award</t>
+  </si>
+  <si>
+    <t>The gang attempts to win the award for Philidelphia's Best Bar.</t>
+  </si>
+  <si>
+    <t>Mac and Dennis Buy a Timeshare</t>
+  </si>
+  <si>
+    <t>After making some very questionable investment choices, the gang try to dump their losses on Ben The Soldier while they look for the man who is pulling their strings.</t>
+  </si>
+  <si>
+    <t>Mac Day</t>
+  </si>
+  <si>
+    <t>Each member of the gang gets a day to do what they want while the others must participate. Mac's Day involves him and his cousin, known as "Country Mac", doing things that are bad ass. But ...</t>
+  </si>
+  <si>
+    <t>The Gang Saves the Day</t>
+  </si>
+  <si>
+    <t>While making a beer run at a local convenience store, the gang witnesses a robbery taking place and each one comes up with a scenario that will save the day and render them heroes.</t>
+  </si>
+  <si>
+    <t>The Gang Gets Quarantined</t>
+  </si>
+  <si>
+    <t>Heath Cullens</t>
+  </si>
+  <si>
+    <t>When a severe flu outbreak sweeps Philadelphia the gang voluntarily quarantine themselves inside of Paddy's.</t>
+  </si>
+  <si>
+    <t>Flowers for Charlie</t>
+  </si>
+  <si>
+    <t>David Benioff, D.B. Weiss</t>
+  </si>
+  <si>
+    <t>When an experiment successfully multiplies Charlie's intellect and takes him away from the bar, the rest of the gang find themselves struggling to complete the menial 'Charlie Work' that has kept the bar running for so long.</t>
+  </si>
+  <si>
+    <t>The Gang Makes Lethal Weapon 6</t>
+  </si>
+  <si>
+    <t>Scott Marder, Lance Krall (staff writer)</t>
+  </si>
+  <si>
+    <t>After creative differences over what constitutes tasteful nudity cause Frank to pull his money out of Lethal Weapon 6 during filming, Mac, Dennis, and Charlie screen their rough footage for...</t>
+  </si>
+  <si>
+    <t>The Gang Squashes Their Beefs</t>
+  </si>
+  <si>
+    <t>Rob Rosell, Lance Krall (staff writer)</t>
+  </si>
+  <si>
+    <t>When some bad blood with old foes compromises their ideal Thanksgiving, the gang decides to make amends by breaking bread with those they've hurt.</t>
+  </si>
+  <si>
+    <t>The Gang Beats Boggs</t>
+  </si>
+  <si>
+    <t>Dave Chernin, John Chernin, Lance Krall (story)</t>
+  </si>
+  <si>
+    <t>The gang try to beat a record set by Wade Boggs of 70 beers on a cross-country flight.</t>
+  </si>
+  <si>
+    <t>The Gang Group Dates</t>
+  </si>
+  <si>
+    <t>The gang decides to start a group dating service at Paddy's.</t>
+  </si>
+  <si>
+    <t>Psycho Pete Returns</t>
+  </si>
+  <si>
+    <t>Mac and Charlie are excited for the return of their old high school friend, Pete, while the rest of the gang fears for his psychotic behavior.</t>
+  </si>
+  <si>
+    <t>Charlie Work</t>
+  </si>
+  <si>
+    <t>Charlie's in charge when a surprise health inspection interrupts a less than hygienic project. He rallies the gang together to make sure Paddy's passes the test.</t>
+  </si>
+  <si>
+    <t>The Gang Spies Like U.S.</t>
+  </si>
+  <si>
+    <t>When Dennis and Mac send Dee to spy on the fish factory across the street, Frank and Charlie become suspicious themselves.</t>
+  </si>
+  <si>
+    <t>The Gang Missess the Boat</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>The gang decides to spend some time apart in order to find out who they really are.</t>
+  </si>
+  <si>
+    <t>Mac Kills His Dad</t>
+  </si>
+  <si>
+    <t>Dave Chernin, John Chernin, David Hornsby</t>
+  </si>
+  <si>
+    <t>After Mac's dad is suspected of murder, Mac sets out to clear his father of any wrong doing.</t>
+  </si>
+  <si>
+    <t>The Gang Goes on Family Fight</t>
+  </si>
+  <si>
+    <t>When the gang appears on a nationally broadcast game show, Dennis does his best to make a good impression.</t>
+  </si>
+  <si>
+    <t>Frank Retires</t>
+  </si>
+  <si>
+    <t>When Frank decides to retire, the gang fights over who is in now charge of the bar.</t>
+  </si>
+  <si>
+    <t>Ass Kickers United: Mac and Charlie Join a Cult</t>
+  </si>
+  <si>
+    <t>Mac and Charlie become brain washed by a cult.</t>
+  </si>
+  <si>
+    <t>charDennis</t>
+  </si>
+  <si>
+    <t>charDee</t>
+  </si>
+  <si>
+    <t>charMac</t>
+  </si>
+  <si>
+    <t>charCharlie</t>
+  </si>
+  <si>
+    <t>charFrank</t>
+  </si>
+  <si>
+    <t>charWaitress</t>
+  </si>
+  <si>
+    <t>charCricket</t>
+  </si>
+  <si>
+    <t>charArtemis</t>
+  </si>
+  <si>
+    <t>charBonnie</t>
+  </si>
+  <si>
+    <t>charMacMom</t>
+  </si>
+  <si>
+    <t>charMacDad</t>
+  </si>
+  <si>
+    <t>charMcPoLiam</t>
+  </si>
+  <si>
+    <t>charMcPoRyan</t>
+  </si>
+  <si>
+    <t>charPonderosaM</t>
+  </si>
+  <si>
+    <t>charPonderosaB</t>
+  </si>
+  <si>
+    <t>charAttorney</t>
+  </si>
+  <si>
+    <t>charBen</t>
+  </si>
+  <si>
+    <t>charMcPoMarg</t>
+  </si>
+  <si>
+    <t>charWaiter</t>
+  </si>
+  <si>
+    <t>charCarmen</t>
+  </si>
+  <si>
+    <t>charUncleJack</t>
+  </si>
+  <si>
+    <t>charLilKev</t>
+  </si>
+  <si>
+    <t>charBruce</t>
+  </si>
+  <si>
+    <t>charBarbara</t>
+  </si>
+  <si>
+    <t>charPopPop</t>
+  </si>
+  <si>
+    <t>charGail</t>
+  </si>
+  <si>
+    <t>charZ</t>
+  </si>
+  <si>
+    <t>charRex</t>
+  </si>
+  <si>
+    <t>charPrincipal</t>
+  </si>
+  <si>
+    <t>charBrad</t>
+  </si>
+  <si>
+    <t>charHwang</t>
+  </si>
+  <si>
+    <t>charIngrid</t>
+  </si>
+  <si>
+    <t>charManiac</t>
+  </si>
+  <si>
+    <t>charJackie</t>
+  </si>
+  <si>
+    <t>charDuncan</t>
+  </si>
+  <si>
+    <t>BeerDennis</t>
+  </si>
+  <si>
+    <t>BeerDee</t>
+  </si>
+  <si>
+    <t>BeerMac</t>
+  </si>
+  <si>
+    <t>BeerCharlie</t>
+  </si>
+  <si>
+    <t>BeerFrank</t>
+  </si>
+  <si>
+    <t>LiqDennis</t>
+  </si>
+  <si>
+    <t>LiqDee</t>
+  </si>
+  <si>
+    <t>LiqMac</t>
+  </si>
+  <si>
+    <t>LiqCharlie</t>
+  </si>
+  <si>
+    <t>LiqFrank</t>
+  </si>
+  <si>
+    <t>MixedDennis</t>
+  </si>
+  <si>
+    <t>MixedDee</t>
+  </si>
+  <si>
+    <t>MixedMac</t>
+  </si>
+  <si>
+    <t>MixedCharlie</t>
+  </si>
+  <si>
+    <t>MixedFrank</t>
+  </si>
+  <si>
+    <t>WineDennis</t>
+  </si>
+  <si>
+    <t>WineDee</t>
+  </si>
+  <si>
+    <t>WineMac</t>
+  </si>
+  <si>
+    <t>WineCharlie</t>
+  </si>
+  <si>
+    <t>WineFrank</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>Crack</t>
+  </si>
+  <si>
+    <t>Steroids</t>
+  </si>
+  <si>
+    <t>Weed</t>
+  </si>
+  <si>
+    <t>OtherDrug</t>
+  </si>
+  <si>
+    <t>WaitressShutCharlie</t>
+  </si>
+  <si>
+    <t>DennisShutWaitress</t>
+  </si>
+  <si>
+    <t>CharlieShutOther</t>
+  </si>
+  <si>
+    <t>CatFood</t>
+  </si>
+  <si>
+    <t>DennisHit</t>
+  </si>
+  <si>
+    <t>DENNISSystem</t>
+  </si>
+  <si>
+    <t>DeeBird</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>FrankBail</t>
+  </si>
+  <si>
+    <t>DennisVain</t>
+  </si>
+  <si>
+    <t>GreenMan</t>
+  </si>
+  <si>
+    <t>MacGay</t>
+  </si>
+  <si>
+    <t>Patriotism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Menlo Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Menlo Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Menlo Regular"/>
       <family val="2"/>
     </font>
@@ -77,21 +1266,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="31">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="generalInfo" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="characterInfo" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,23 +1674,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="12" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,45 +1716,3971 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38568</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>8.6</v>
+      </c>
+      <c r="J2">
+        <v>1058</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>38575</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J3">
+        <v>917</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>38580</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J4">
+        <v>925</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>38587</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>8.5</v>
+      </c>
+      <c r="J5">
+        <v>858</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>38594</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>8.5</v>
+      </c>
+      <c r="J6">
+        <v>760</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>38601</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>8.6</v>
+      </c>
+      <c r="J7">
+        <v>765</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2">
+        <v>38608</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J8">
+        <v>822</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>38897</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J9">
+        <v>813</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38897</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J10">
+        <v>801</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2">
+        <v>38904</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>9.1</v>
+      </c>
+      <c r="J11">
+        <v>938</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2">
+        <v>38904</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J12">
+        <v>935</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2">
+        <v>38911</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>854</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2">
+        <v>38918</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J14">
+        <v>727</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2">
+        <v>38925</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J15">
+        <v>634</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2">
+        <v>38932</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J16">
+        <v>631</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2">
+        <v>38939</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J17">
+        <v>692</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>38946</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J18">
+        <v>652</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2">
+        <v>39338</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J19">
+        <v>698</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="2">
+        <v>39338</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>764</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>39345</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>8.6</v>
+      </c>
+      <c r="J21">
+        <v>614</v>
+      </c>
+      <c r="K21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2">
+        <v>39345</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>802</v>
+      </c>
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2">
+        <v>39352</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J23">
+        <v>622</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2">
+        <v>39352</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J24">
+        <v>633</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2">
+        <v>39359</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25">
+        <v>8.5</v>
+      </c>
+      <c r="J25">
+        <v>581</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2">
+        <v>39359</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J26">
+        <v>623</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2">
+        <v>39366</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J27">
+        <v>1028</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2">
+        <v>39373</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28">
+        <v>9.1</v>
+      </c>
+      <c r="J28">
+        <v>789</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="2">
+        <v>39380</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J29">
+        <v>594</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2">
+        <v>39387</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30">
+        <v>8.5</v>
+      </c>
+      <c r="J30">
+        <v>520</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2">
+        <v>39387</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J31">
+        <v>509</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="2">
+        <v>39401</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J32">
+        <v>612</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="2">
+        <v>39401</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33">
+        <v>9.1</v>
+      </c>
+      <c r="J33">
+        <v>756</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="2">
+        <v>39709</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34">
+        <v>8.6</v>
+      </c>
+      <c r="J34">
+        <v>655</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="2">
+        <v>39709</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J35">
+        <v>863</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="2">
+        <v>39716</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J36">
+        <v>585</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="2">
+        <v>39716</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J37">
+        <v>564</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="2">
+        <v>39723</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38">
+        <v>9.1</v>
+      </c>
+      <c r="J38">
+        <v>607</v>
+      </c>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="2">
+        <v>39723</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J39">
+        <v>533</v>
+      </c>
+      <c r="K39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="2">
+        <v>39730</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40">
+        <v>8.5</v>
+      </c>
+      <c r="J40">
+        <v>698</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="2">
+        <v>39737</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J41">
+        <v>558</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="2">
+        <v>39744</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42">
+        <v>8.6</v>
+      </c>
+      <c r="J42">
+        <v>547</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="2">
+        <v>39751</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J43">
+        <v>591</v>
+      </c>
+      <c r="K43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="2">
+        <v>39758</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44">
+        <v>8.1</v>
+      </c>
+      <c r="J44">
+        <v>559</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="2">
+        <v>39765</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45">
+        <v>8.6</v>
+      </c>
+      <c r="J45">
+        <v>540</v>
+      </c>
+      <c r="K45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="2">
+        <v>39772</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46">
+        <v>9.6</v>
+      </c>
+      <c r="J46">
+        <v>1415</v>
+      </c>
+      <c r="K46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="2">
+        <v>40073</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47">
+        <v>8.4</v>
+      </c>
+      <c r="J47">
+        <v>569</v>
+      </c>
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="2">
+        <v>40080</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48">
+        <v>9.1</v>
+      </c>
+      <c r="J48">
+        <v>680</v>
+      </c>
+      <c r="K48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="2">
+        <v>40087</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J49">
+        <v>481</v>
+      </c>
+      <c r="K49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40094</v>
+      </c>
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50">
+        <v>8.9</v>
+      </c>
+      <c r="J50">
+        <v>618</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="2">
+        <v>40101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I51">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J51">
+        <v>626</v>
+      </c>
+      <c r="K51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="2">
+        <v>40108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" t="s">
+        <v>155</v>
+      </c>
+      <c r="I52">
+        <v>8.4</v>
+      </c>
+      <c r="J52">
+        <v>489</v>
+      </c>
+      <c r="K52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="2">
+        <v>40115</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>157</v>
+      </c>
+      <c r="H53" t="s">
+        <v>158</v>
+      </c>
+      <c r="I53">
+        <v>8.5</v>
+      </c>
+      <c r="J53">
+        <v>515</v>
+      </c>
+      <c r="K53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="2">
+        <v>40122</v>
+      </c>
+      <c r="F54" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>641</v>
+      </c>
+      <c r="K54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="2">
+        <v>40129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55">
+        <v>8.5</v>
+      </c>
+      <c r="J55">
+        <v>492</v>
+      </c>
+      <c r="K55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="2">
+        <v>40136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" t="s">
+        <v>165</v>
+      </c>
+      <c r="I56">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J56">
+        <v>770</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="2">
+        <v>40150</v>
+      </c>
+      <c r="F57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" t="s">
+        <v>168</v>
+      </c>
+      <c r="I57">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J57">
+        <v>490</v>
+      </c>
+      <c r="K57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="2">
+        <v>40157</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" t="s">
+        <v>171</v>
+      </c>
+      <c r="I58">
+        <v>8.6</v>
+      </c>
+      <c r="J58">
+        <v>502</v>
+      </c>
+      <c r="K58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="2">
+        <v>40437</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>523</v>
+      </c>
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="2">
+        <v>40444</v>
+      </c>
+      <c r="F60" t="s">
+        <v>175</v>
+      </c>
+      <c r="G60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60">
+        <v>7.8</v>
+      </c>
+      <c r="J60">
+        <v>464</v>
+      </c>
+      <c r="K60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="2">
+        <v>40451</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J61">
+        <v>587</v>
+      </c>
+      <c r="K61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="2">
+        <v>40458</v>
+      </c>
+      <c r="F62" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" t="s">
+        <v>181</v>
+      </c>
+      <c r="I62">
+        <v>8.4</v>
+      </c>
+      <c r="J62">
+        <v>470</v>
+      </c>
+      <c r="K62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="2">
+        <v>40465</v>
+      </c>
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" t="s">
+        <v>184</v>
+      </c>
+      <c r="I63">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J63">
+        <v>457</v>
+      </c>
+      <c r="K63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="2">
+        <v>40472</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" t="s">
+        <v>186</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>446</v>
+      </c>
+      <c r="K64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="2">
+        <v>40479</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" t="s">
+        <v>188</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="J65">
+        <v>588</v>
+      </c>
+      <c r="K65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="2">
+        <v>40486</v>
+      </c>
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66">
+        <v>8.1</v>
+      </c>
+      <c r="J66">
+        <v>442</v>
+      </c>
+      <c r="K66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="2">
+        <v>40493</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s">
+        <v>192</v>
+      </c>
+      <c r="I67">
+        <v>8.9</v>
+      </c>
+      <c r="J67">
+        <v>552</v>
+      </c>
+      <c r="K67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="2">
+        <v>40500</v>
+      </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s">
+        <v>194</v>
+      </c>
+      <c r="I68">
+        <v>8.5</v>
+      </c>
+      <c r="J68">
+        <v>479</v>
+      </c>
+      <c r="K68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="2">
+        <v>40514</v>
+      </c>
+      <c r="F69" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>197</v>
+      </c>
+      <c r="I69">
+        <v>8.6</v>
+      </c>
+      <c r="J69">
+        <v>458</v>
+      </c>
+      <c r="K69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="2">
+        <v>40521</v>
+      </c>
+      <c r="F70" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>200</v>
+      </c>
+      <c r="I70">
+        <v>8.6</v>
+      </c>
+      <c r="J70">
+        <v>445</v>
+      </c>
+      <c r="K70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="2">
+        <v>40521</v>
+      </c>
+      <c r="F71" t="s">
+        <v>202</v>
+      </c>
+      <c r="G71" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" t="s">
+        <v>203</v>
+      </c>
+      <c r="I71">
+        <v>9.1</v>
+      </c>
+      <c r="J71">
+        <v>1691</v>
+      </c>
+      <c r="K71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="2">
+        <v>40801</v>
+      </c>
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J72">
+        <v>678</v>
+      </c>
+      <c r="K72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="2">
+        <v>40808</v>
+      </c>
+      <c r="F73" t="s">
+        <v>175</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>208</v>
+      </c>
+      <c r="I73">
+        <v>9.1</v>
+      </c>
+      <c r="J73">
+        <v>741</v>
+      </c>
+      <c r="K73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" s="2">
+        <v>40815</v>
+      </c>
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>210</v>
+      </c>
+      <c r="I74">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J74">
+        <v>596</v>
+      </c>
+      <c r="K74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="2">
+        <v>40822</v>
+      </c>
+      <c r="F75" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" t="s">
+        <v>212</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <v>467</v>
+      </c>
+      <c r="K75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="2">
+        <v>40829</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H76" t="s">
+        <v>214</v>
+      </c>
+      <c r="I76">
+        <v>7.1</v>
+      </c>
+      <c r="J76">
+        <v>586</v>
+      </c>
+      <c r="K76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="2">
+        <v>40836</v>
+      </c>
+      <c r="F77" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" t="s">
+        <v>217</v>
+      </c>
+      <c r="I77">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J77">
+        <v>551</v>
+      </c>
+      <c r="K77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="2">
+        <v>40843</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>71</v>
+      </c>
+      <c r="H78" t="s">
+        <v>219</v>
+      </c>
+      <c r="I78">
+        <v>9</v>
+      </c>
+      <c r="J78">
+        <v>726</v>
+      </c>
+      <c r="K78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="2">
+        <v>40850</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s">
+        <v>221</v>
+      </c>
+      <c r="I79">
+        <v>8.5</v>
+      </c>
+      <c r="J79">
+        <v>451</v>
+      </c>
+      <c r="K79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="2">
+        <v>40857</v>
+      </c>
+      <c r="F80" t="s">
+        <v>183</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>223</v>
+      </c>
+      <c r="I80">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J80">
+        <v>500</v>
+      </c>
+      <c r="K80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" s="2">
+        <v>40864</v>
+      </c>
+      <c r="F81" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" t="s">
+        <v>226</v>
+      </c>
+      <c r="H81" t="s">
+        <v>227</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <v>417</v>
+      </c>
+      <c r="K81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="2">
+        <v>40878</v>
+      </c>
+      <c r="F82" t="s">
+        <v>175</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>229</v>
+      </c>
+      <c r="I82">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J82">
+        <v>543</v>
+      </c>
+      <c r="K82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>230</v>
+      </c>
+      <c r="E83" s="2">
+        <v>40885</v>
+      </c>
+      <c r="F83" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s">
+        <v>231</v>
+      </c>
+      <c r="I83">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J83">
+        <v>423</v>
+      </c>
+      <c r="K83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" s="2">
+        <v>40892</v>
+      </c>
+      <c r="F84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>233</v>
+      </c>
+      <c r="I84">
+        <v>8.4</v>
+      </c>
+      <c r="J84">
+        <v>448</v>
+      </c>
+      <c r="K84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="2">
+        <v>41193</v>
+      </c>
+      <c r="F85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>235</v>
+      </c>
+      <c r="I85">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J85">
+        <v>515</v>
+      </c>
+      <c r="K85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="2">
+        <v>41200</v>
+      </c>
+      <c r="F86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>237</v>
+      </c>
+      <c r="I86">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J86">
+        <v>438</v>
+      </c>
+      <c r="K86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" s="2">
+        <v>41207</v>
+      </c>
+      <c r="F87" t="s">
+        <v>47</v>
+      </c>
+      <c r="G87" t="s">
+        <v>239</v>
+      </c>
+      <c r="H87" t="s">
+        <v>240</v>
+      </c>
+      <c r="I87">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J87">
+        <v>597</v>
+      </c>
+      <c r="K87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="2">
+        <v>41214</v>
+      </c>
+      <c r="F88" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" t="s">
+        <v>239</v>
+      </c>
+      <c r="H88" t="s">
+        <v>242</v>
+      </c>
+      <c r="I88">
+        <v>9.1</v>
+      </c>
+      <c r="J88">
+        <v>688</v>
+      </c>
+      <c r="K88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>243</v>
+      </c>
+      <c r="E89" s="2">
+        <v>41221</v>
+      </c>
+      <c r="F89" t="s">
+        <v>183</v>
+      </c>
+      <c r="G89" t="s">
+        <v>244</v>
+      </c>
+      <c r="H89" t="s">
+        <v>245</v>
+      </c>
+      <c r="I89">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J89">
+        <v>466</v>
+      </c>
+      <c r="K89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" s="2">
+        <v>41228</v>
+      </c>
+      <c r="F90" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" t="s">
+        <v>239</v>
+      </c>
+      <c r="H90" t="s">
+        <v>247</v>
+      </c>
+      <c r="I90">
+        <v>7.8</v>
+      </c>
+      <c r="J90">
+        <v>422</v>
+      </c>
+      <c r="K90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>248</v>
+      </c>
+      <c r="E91" s="2">
+        <v>41242</v>
+      </c>
+      <c r="F91" t="s">
+        <v>175</v>
+      </c>
+      <c r="G91" t="s">
+        <v>239</v>
+      </c>
+      <c r="H91" t="s">
+        <v>249</v>
+      </c>
+      <c r="I91">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J91">
+        <v>378</v>
+      </c>
+      <c r="K91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" s="2">
+        <v>41249</v>
+      </c>
+      <c r="F92" t="s">
+        <v>56</v>
+      </c>
+      <c r="G92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92" t="s">
+        <v>251</v>
+      </c>
+      <c r="I92">
+        <v>8.4</v>
+      </c>
+      <c r="J92">
+        <v>392</v>
+      </c>
+      <c r="K92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93" s="2">
+        <v>41256</v>
+      </c>
+      <c r="F93" t="s">
+        <v>253</v>
+      </c>
+      <c r="G93" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" t="s">
+        <v>254</v>
+      </c>
+      <c r="I93">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J93">
+        <v>432</v>
+      </c>
+      <c r="K93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>255</v>
+      </c>
+      <c r="E94" s="2">
+        <v>41263</v>
+      </c>
+      <c r="F94" t="s">
+        <v>47</v>
+      </c>
+      <c r="G94" t="s">
+        <v>239</v>
+      </c>
+      <c r="H94" t="s">
+        <v>256</v>
+      </c>
+      <c r="I94">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J94">
+        <v>386</v>
+      </c>
+      <c r="K94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>257</v>
+      </c>
+      <c r="E95" s="2">
+        <v>41521</v>
+      </c>
+      <c r="F95" t="s">
+        <v>47</v>
+      </c>
+      <c r="G95" t="s">
+        <v>239</v>
+      </c>
+      <c r="H95" t="s">
+        <v>258</v>
+      </c>
+      <c r="I95">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J95">
+        <v>585</v>
+      </c>
+      <c r="K95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>259</v>
+      </c>
+      <c r="E96" s="2">
+        <v>41528</v>
+      </c>
+      <c r="F96" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" t="s">
+        <v>244</v>
+      </c>
+      <c r="H96" t="s">
+        <v>260</v>
+      </c>
+      <c r="I96">
+        <v>8.4</v>
+      </c>
+      <c r="J96">
+        <v>430</v>
+      </c>
+      <c r="K96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" s="2">
+        <v>41535</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" t="s">
+        <v>239</v>
+      </c>
+      <c r="H97" t="s">
+        <v>262</v>
+      </c>
+      <c r="I97">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J97">
+        <v>716</v>
+      </c>
+      <c r="K97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98" s="2">
+        <v>41542</v>
+      </c>
+      <c r="F98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>264</v>
+      </c>
+      <c r="I98">
+        <v>8.1</v>
+      </c>
+      <c r="J98">
+        <v>409</v>
+      </c>
+      <c r="K98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="2">
+        <v>41549</v>
+      </c>
+      <c r="F99" t="s">
+        <v>47</v>
+      </c>
+      <c r="G99" t="s">
+        <v>239</v>
+      </c>
+      <c r="H99" t="s">
+        <v>266</v>
+      </c>
+      <c r="I99">
+        <v>8.6</v>
+      </c>
+      <c r="J99">
+        <v>435</v>
+      </c>
+      <c r="K99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" s="2">
+        <v>41556</v>
+      </c>
+      <c r="F100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>268</v>
+      </c>
+      <c r="I100">
+        <v>9.1</v>
+      </c>
+      <c r="J100">
+        <v>615</v>
+      </c>
+      <c r="K100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>269</v>
+      </c>
+      <c r="E101" s="2">
+        <v>41563</v>
+      </c>
+      <c r="F101" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" t="s">
+        <v>270</v>
+      </c>
+      <c r="H101" t="s">
+        <v>271</v>
+      </c>
+      <c r="I101">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J101">
+        <v>417</v>
+      </c>
+      <c r="K101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>272</v>
+      </c>
+      <c r="E102" s="2">
+        <v>41570</v>
+      </c>
+      <c r="F102" t="s">
+        <v>273</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>274</v>
+      </c>
+      <c r="I102">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J102">
+        <v>394</v>
+      </c>
+      <c r="K102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>275</v>
+      </c>
+      <c r="E103" s="2">
+        <v>41577</v>
+      </c>
+      <c r="F103" t="s">
+        <v>276</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>277</v>
+      </c>
+      <c r="I103">
+        <v>8.1</v>
+      </c>
+      <c r="J103">
+        <v>364</v>
+      </c>
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>278</v>
+      </c>
+      <c r="E104" s="2">
+        <v>41584</v>
+      </c>
+      <c r="F104" t="s">
+        <v>279</v>
+      </c>
+      <c r="G104" t="s">
+        <v>244</v>
+      </c>
+      <c r="H104" t="s">
+        <v>280</v>
+      </c>
+      <c r="I104">
+        <v>8.4</v>
+      </c>
+      <c r="J104">
+        <v>349</v>
+      </c>
+      <c r="K104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" s="2">
+        <v>42018</v>
+      </c>
+      <c r="F105" t="s">
+        <v>282</v>
+      </c>
+      <c r="G105" t="s">
+        <v>244</v>
+      </c>
+      <c r="H105" t="s">
+        <v>283</v>
+      </c>
+      <c r="I105">
+        <v>8.6</v>
+      </c>
+      <c r="J105">
+        <v>580</v>
+      </c>
+      <c r="K105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>284</v>
+      </c>
+      <c r="E106" s="2">
+        <v>42025</v>
+      </c>
+      <c r="F106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" t="s">
+        <v>239</v>
+      </c>
+      <c r="H106" t="s">
+        <v>285</v>
+      </c>
+      <c r="I106">
+        <v>9</v>
+      </c>
+      <c r="J106">
+        <v>512</v>
+      </c>
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>286</v>
+      </c>
+      <c r="E107" s="2">
+        <v>42032</v>
+      </c>
+      <c r="F107" t="s">
+        <v>47</v>
+      </c>
+      <c r="G107" t="s">
+        <v>244</v>
+      </c>
+      <c r="H107" t="s">
+        <v>287</v>
+      </c>
+      <c r="I107">
+        <v>7.9</v>
+      </c>
+      <c r="J107">
+        <v>347</v>
+      </c>
+      <c r="K107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>288</v>
+      </c>
+      <c r="E108" s="2">
+        <v>42039</v>
+      </c>
+      <c r="F108" t="s">
+        <v>47</v>
+      </c>
+      <c r="G108" t="s">
+        <v>71</v>
+      </c>
+      <c r="H108" t="s">
+        <v>289</v>
+      </c>
+      <c r="I108">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J108">
+        <v>1300</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>290</v>
+      </c>
+      <c r="E109" s="2">
+        <v>42046</v>
+      </c>
+      <c r="F109" t="s">
+        <v>56</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>291</v>
+      </c>
+      <c r="I109">
+        <v>8.4</v>
+      </c>
+      <c r="J109">
+        <v>340</v>
+      </c>
+      <c r="K109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>292</v>
+      </c>
+      <c r="E110" s="2">
+        <v>42053</v>
+      </c>
+      <c r="F110" t="s">
+        <v>293</v>
+      </c>
+      <c r="G110" t="s">
+        <v>239</v>
+      </c>
+      <c r="H110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I110">
+        <v>9.1</v>
+      </c>
+      <c r="J110">
+        <v>260</v>
+      </c>
+      <c r="K110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111" s="2">
+        <v>42060</v>
+      </c>
+      <c r="F111" t="s">
+        <v>296</v>
+      </c>
+      <c r="G111" t="s">
+        <v>270</v>
+      </c>
+      <c r="H111" t="s">
+        <v>297</v>
+      </c>
+      <c r="I111">
+        <v>8.4</v>
+      </c>
+      <c r="J111">
+        <v>278</v>
+      </c>
+      <c r="K111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>298</v>
+      </c>
+      <c r="E112" s="2">
+        <v>42067</v>
+      </c>
+      <c r="F112" t="s">
+        <v>293</v>
+      </c>
+      <c r="G112" t="s">
+        <v>293</v>
+      </c>
+      <c r="H112" t="s">
+        <v>299</v>
+      </c>
+      <c r="I112">
+        <v>8.6</v>
+      </c>
+      <c r="J112">
+        <v>116</v>
+      </c>
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>300</v>
+      </c>
+      <c r="E113" s="2">
+        <v>42074</v>
+      </c>
+      <c r="F113" t="s">
+        <v>293</v>
+      </c>
+      <c r="G113" t="s">
+        <v>239</v>
+      </c>
+      <c r="H113" t="s">
+        <v>301</v>
+      </c>
+      <c r="I113">
+        <v>8.5</v>
+      </c>
+      <c r="J113">
+        <v>175</v>
+      </c>
+      <c r="K113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>302</v>
+      </c>
+      <c r="E114" s="2">
+        <v>42081</v>
+      </c>
+      <c r="F114" t="s">
+        <v>293</v>
+      </c>
+      <c r="G114" t="s">
+        <v>270</v>
+      </c>
+      <c r="H114" t="s">
+        <v>303</v>
+      </c>
+      <c r="I114">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J114">
+        <v>116</v>
+      </c>
+      <c r="K114" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -505,4 +5692,1766 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" t="s">
+        <v>323</v>
+      </c>
+      <c r="V1" t="s">
+        <v>324</v>
+      </c>
+      <c r="W1" t="s">
+        <v>325</v>
+      </c>
+      <c r="X1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="12.125" customWidth="1"/>
+    <col min="28" max="30" width="19.875" customWidth="1"/>
+    <col min="32" max="32" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L1" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O1" t="s">
+        <v>352</v>
+      </c>
+      <c r="P1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>354</v>
+      </c>
+      <c r="R1" t="s">
+        <v>355</v>
+      </c>
+      <c r="S1" t="s">
+        <v>356</v>
+      </c>
+      <c r="T1" t="s">
+        <v>357</v>
+      </c>
+      <c r="U1" t="s">
+        <v>358</v>
+      </c>
+      <c r="V1" t="s">
+        <v>359</v>
+      </c>
+      <c r="W1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/codeBook.xlsx
+++ b/codeBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27920" yWindow="-10760" windowWidth="35960" windowHeight="18180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="generalInfo" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="399">
   <si>
     <t>AbsOrder</t>
   </si>
@@ -1221,13 +1221,79 @@
   </si>
   <si>
     <t>Patriotism</t>
+  </si>
+  <si>
+    <t>NightCrawl</t>
+  </si>
+  <si>
+    <t>DeeCar</t>
+  </si>
+  <si>
+    <t>MacKarate</t>
+  </si>
+  <si>
+    <t>DeeTurkey</t>
+  </si>
+  <si>
+    <t>NightDayMan</t>
+  </si>
+  <si>
+    <t>BlackFace</t>
+  </si>
+  <si>
+    <t>CharlieIlliteracy</t>
+  </si>
+  <si>
+    <t>OcularPat</t>
+  </si>
+  <si>
+    <t>FrankViet</t>
+  </si>
+  <si>
+    <t>GodDamn</t>
+  </si>
+  <si>
+    <t>Acapella</t>
+  </si>
+  <si>
+    <t>DennisSex</t>
+  </si>
+  <si>
+    <t>OpBadass</t>
+  </si>
+  <si>
+    <t>UncleJackHands</t>
+  </si>
+  <si>
+    <t>BirdLaw</t>
+  </si>
+  <si>
+    <t>CharlieLawyer</t>
+  </si>
+  <si>
+    <t>PhilSports</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>CharlieWork</t>
+  </si>
+  <si>
+    <t>DeeActor</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1245,6 +1311,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Menlo Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
       <family val="2"/>
     </font>
@@ -1266,7 +1338,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1298,15 +1370,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1322,6 +1411,14 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1337,6 +1434,14 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1677,7 +1782,7 @@
   <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5699,7 +5804,7 @@
   <dimension ref="A1:AJ114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6176,7 +6281,109 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>0</v>
       </c>
     </row>
@@ -6747,22 +6954,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM114"/>
+  <dimension ref="A1:BG114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="12" max="21" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="13.25" customWidth="1"/>
     <col min="28" max="30" width="19.875" customWidth="1"/>
+    <col min="31" max="31" width="18.5" customWidth="1"/>
     <col min="32" max="32" width="13.125" customWidth="1"/>
+    <col min="33" max="40" width="13.5" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="59" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6826,132 +7038,366 @@
       <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC1" t="s">
         <v>364</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>365</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>366</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>368</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>369</v>
       </c>
       <c r="AG1" t="s">
         <v>370</v>
       </c>
       <c r="AH1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="BA1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:59">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:59">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:59">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>397</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>397</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AZ5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:59">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:59">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:59">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:59">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:59">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:59">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:59">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:59">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:59">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:59">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7448,6 +7894,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/codeBook.xlsx
+++ b/codeBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="generalInfo" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="400">
   <si>
     <t>AbsOrder</t>
   </si>
@@ -1287,6 +1287,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>DeeBoyfriend</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1341,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1395,7 +1400,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1419,6 +1424,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1442,6 +1448,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1781,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5803,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6391,7 +6398,109 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -6954,11 +7063,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG114"/>
+  <dimension ref="A1:BH114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6966,15 +7075,17 @@
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="12" max="21" width="12.125" customWidth="1"/>
     <col min="27" max="27" width="13.25" customWidth="1"/>
-    <col min="28" max="30" width="19.875" customWidth="1"/>
+    <col min="28" max="28" width="14.75" customWidth="1"/>
+    <col min="29" max="30" width="19.875" customWidth="1"/>
     <col min="31" max="31" width="18.5" customWidth="1"/>
     <col min="32" max="32" width="13.125" customWidth="1"/>
     <col min="33" max="40" width="13.5" customWidth="1"/>
     <col min="41" max="41" width="16.5" customWidth="1"/>
     <col min="42" max="59" width="13.5" customWidth="1"/>
+    <col min="60" max="60" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7152,23 +7263,26 @@
       <c r="BG1" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="2" spans="1:59">
+      <c r="BH1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:60">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:60">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:60">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7346,58 +7460,238 @@
       <c r="BG5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:59">
+      <c r="BH5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:59">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>397</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>397</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="AZ6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:60">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:60">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:60">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:60">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:60">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:60">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:60">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:60">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:60">
       <c r="A16">
         <v>15</v>
       </c>
